--- a/docs/ST1/ST1_13.11.2024_output.xlsx
+++ b/docs/ST1/ST1_13.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731619441.3758574</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731619443.1983004</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619441.3758574.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619443.1983004.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>134.82</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>134.8</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.01999999999998181</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731619443.2142577</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731619447.700404</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619443.2142577.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619447.700404.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>134.8</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>135.68</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.8799999999999955</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.65</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731619447.7163336</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731619450.9812503</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619447.7163336.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619450.9812503.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>135.68</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>135.8</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731619458.634927</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731619461.6253278</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619458.634927.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619461.6253278.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>135.41</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>135.68</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.2700000000000102</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -747,95 +787,107 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731619464.324505</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731619464.324505.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731619464.324505.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>136.05</v>
       </c>
-      <c r="J7" t="n">
-        <v>136.05</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>136.39</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.339999999999975</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731619468.5955303</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731619471.3018441</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731619468.5955303.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731619471.3018441.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6991.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6988</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-3.5</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731619471.3178213</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731619472.8761594</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731619471.3178213.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731619472.8761594.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6988</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6989</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-1</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731619472.8921165</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731619474.3020892</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731619472.8921165.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731619474.3020892.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6989</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>7000</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>11</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731619477.0618584</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731619478.5948915</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731619477.0618584.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731619478.5948915.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>7020</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>7012</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-8</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731619478.6108215</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731619481.2144501</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731619478.6108215.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731619481.2144501.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>7012</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>7013</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-1</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731619496.5197778</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731619498.4330475</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619496.5197778.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619498.4330475.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>485.4</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>487.45</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>2.050000000000011</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731619500.395777</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731619501.5021114</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619500.395777.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619501.5021114.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>488.25</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>490</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>1.75</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731619506.699703</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731619508.3847828</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619506.699703.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619508.3847828.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>488.3</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>488.45</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.1499999999999773</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731619508.4007373</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731619509.8831012</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619508.4007373.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619509.8831012.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>488.45</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>489.25</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.8000000000000114</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731619511.2601395</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731619511.750758</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619511.2601395.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619511.750758.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>489.3</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>490.15</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.8499999999999659</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731619514.5685883</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731619516.7031238</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619514.5685883.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619516.7031238.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>489.7</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>488.75</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.9499999999999886</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731619516.7200773</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731619518.5870798</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619516.7200773.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619518.5870798.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>488.75</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>488.95</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.1999999999999886</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731619518.604034</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731619519.1668625</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619518.604034.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619519.1668625.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>488.95</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>490.25</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>1.300000000000011</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1467,51 +1591,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731619520.2322896</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731619521.2341776</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619520.2322896.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619521.2341776.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>489.95</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>491.7</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>1.75</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731619524.6959748</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731619527.119717</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619524.6959748.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619527.119717.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>924.4</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>925.6</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1571,51 +1707,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731619529.0867317</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731619531.0945573</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619529.0867317.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619531.0945573.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>927.4</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>932.2</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>4.800000000000068</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -1623,51 +1765,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731619533.344502</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731619534.066793</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619533.344502.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619534.066793.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>928.6</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>927</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>1.600000000000023</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1675,51 +1823,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731619534.9493382</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731619535.167868</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619534.9493382.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619535.167868.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>927.8</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>926.2</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>1.599999999999909</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1727,51 +1881,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731619537.3978422</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731619541.0487309</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619537.3978422.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619541.0487309.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>927.6</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>927.2</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.3999999999999773</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1779,51 +1939,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731619541.0666564</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731619543.3769488</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619541.0666564.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619543.3769488.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>927.2</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>927.4</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.1999999999999318</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1831,51 +1997,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731619543.3929076</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731619544.9478686</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619543.3929076.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619544.9478686.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>927.4</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>928</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1883,51 +2055,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731619544.9647954</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731619546.1095874</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619544.9647954.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619546.1095874.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>928</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>927.6</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1935,51 +2113,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731619546.1265554</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731619546.4220443</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619546.1265554.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619546.4220443.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>927.6</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>929.2</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>1.600000000000023</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1987,51 +2171,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731619547.7638433</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731619549.9234688</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619547.7638433.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619549.9234688.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>929.8</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>932.8</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>3</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -2039,51 +2229,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731619552.3118622</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731619553.5551424</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619552.3118622.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619553.5551424.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>37.68</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>37.825</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.1450000000000031</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -2091,51 +2287,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731619554.8563955</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731619556.2815523</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619554.8563955.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619556.2815523.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>37.745</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>37.925</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.1799999999999997</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -2143,51 +2345,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731619557.1878266</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731619558.116948</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619557.1878266.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619558.116948.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>37.89</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>38.12</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.2299999999999969</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -2195,51 +2403,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731619560.1779842</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731619569.1253555</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619560.1779842.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619569.1253555.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>38.275</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>38.15</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.125</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -2247,51 +2461,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731619569.1413133</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731619570.5827992</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619569.1413133.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619570.5827992.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>38.15</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>38.14</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.00999999999999801</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2299,51 +2519,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731619570.599726</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731619572.3587942</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619570.599726.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619572.3587942.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>38.14</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>38.13</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.00999999999999801</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2351,51 +2577,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731619572.3747246</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731619577.114874</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619572.3747246.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619577.114874.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>38.13</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>38.38</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.66</v>
       </c>
     </row>
@@ -2403,51 +2635,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731619577.1328254</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731619577.9059231</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619577.1328254.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619577.9059231.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>38.38</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>38.49</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.1099999999999994</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2455,95 +2693,107 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731619578.358429</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731619578.358429.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731619578.358429.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>38.38</v>
       </c>
-      <c r="J40" t="n">
-        <v>38.38</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>38.405</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.02499999999999858</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731619580.5863428</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731619583.8384042</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619580.5863428.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619583.8384042.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1231.2</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1230.8</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.4000000000000909</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2551,51 +2801,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731619583.8553584</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731619585.2806292</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619583.8553584.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619585.2806292.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1230.8</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>1227</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>3.799999999999955</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2603,51 +2859,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731619585.2985551</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731619586.3725226</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619585.2985551.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619586.3725226.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1227</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1235</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>8</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -2655,51 +2917,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731619587.8284671</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731619591.0600972</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619587.8284671.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619591.0600972.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1236.6</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1234.4</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-2.199999999999818</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -2707,51 +2975,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731619591.0770578</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731619595.4803782</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619591.0770578.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619595.4803782.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1234.4</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>1233</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2759,51 +3033,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731619597.8886497</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731619599.5386634</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619597.8886497.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619599.5386634.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1222.6</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1217</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>5.599999999999909</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -2811,51 +3091,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731619600.6354885</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731619604.5733871</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619600.6354885.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619604.5733871.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1217.4</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1226.2</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-8.799999999999955</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.72</v>
       </c>
     </row>
@@ -2863,51 +3149,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731619604.5893369</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731619607.2529156</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619604.5893369.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619607.2529156.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1226.2</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1234.8</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>8.599999999999909</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.7000000000000001</v>
       </c>
     </row>
@@ -2915,51 +3207,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731619610.8472347</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731619612.9061925</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619610.8472347.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619612.9061925.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>80.95</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>80.95</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2967,51 +3265,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731619612.9231472</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731619614.083558</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619612.9231472.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619614.083558.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>80.95</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>80.98999999999999</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.03999999999999204</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3019,51 +3323,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731619614.0994883</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731619615.7242398</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619614.0994883.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619615.7242398.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>80.98999999999999</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>81.15000000000001</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.1600000000000108</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -3071,51 +3381,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731619615.7401972</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731619620.518267</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619615.7401972.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619620.518267.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>81.15000000000001</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>81.16</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.009999999999990905</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3123,51 +3439,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731619620.7186432</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731619626.3164988</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619620.7186432.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619626.3164988.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>81.08</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>80.34999999999999</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.730000000000004</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-0.8999999999999999</v>
       </c>
     </row>
@@ -3175,51 +3497,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731619626.3324585</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731619627.8892958</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619626.3324585.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619627.8892958.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>80.34999999999999</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>80.23</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.1199999999999903</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -3227,51 +3555,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731619628.9287198</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731619630.982624</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619628.9287198.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619630.982624.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>80.2</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>80.3</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -3279,51 +3613,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731619630.9995778</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731619631.3839653</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619630.9995778.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619631.3839653.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>80.3</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>80.51000000000001</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.210000000000008</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -3331,51 +3671,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731619636.4859953</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731619638.9746916</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619636.4859953.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619638.9746916.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>14.151</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>14.17</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.01900000000000013</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3383,51 +3729,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731619640.8533494</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731619642.1338596</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619640.8533494.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619642.1338596.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>14.212</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>14.25</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.03800000000000026</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -3435,51 +3787,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731619643.6986957</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731619646.2760823</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619643.6986957.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619646.2760823.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>14.245</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>14.206</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.0389999999999997</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -3487,51 +3845,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731619646.2920387</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731619650.3316789</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619646.2920387.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619650.3316789.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>14.206</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>14.261</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.05499999999999972</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -3539,51 +3903,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731619650.3486335</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731619653.5917778</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619650.3486335.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619653.5917778.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>14.261</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>14.212</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.04899999999999949</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -3591,51 +3961,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731619653.6097019</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731619654.8244147</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619653.6097019.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619654.8244147.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>14.212</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>14.182</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.02999999999999936</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -3643,51 +4019,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731619654.8423674</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731619656.8001828</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619654.8423674.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619656.8001828.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>14.182</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>14.2</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.01799999999999891</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3695,51 +4077,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731619656.8563113</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731619660.0813801</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619656.8563113.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619660.0813801.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>14.178</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>14.232</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.05399999999999849</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -3747,51 +4135,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731619660.0989752</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731619661.1736674</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619660.0989752.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619661.1736674.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>14.232</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>14.234</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.002000000000000668</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3799,95 +4193,107 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731619661.1906726</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731619661.1906726.png</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731619661.1906726.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>14.234</v>
       </c>
-      <c r="J66" t="n">
-        <v>14.234</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>14.369</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.1349999999999998</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.95</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731619665.6263423</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731619667.2155125</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619665.6263423.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619667.2155125.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>104.46</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>104.32</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.1400000000000006</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -3895,51 +4301,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731619667.2324722</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731619676.8833554</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619667.2324722.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619676.8833554.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>104.32</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>105.71</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-1.390000000000001</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-1.33</v>
       </c>
     </row>
@@ -3947,51 +4359,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731619676.9003117</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731619685.1494436</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619676.9003117.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619685.1494436.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>105.71</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>105.15</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.5599999999999881</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>-0.53</v>
       </c>
     </row>
@@ -3999,51 +4417,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731619685.9700055</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731619686.7050664</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619685.9700055.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619686.7050664.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>104.99</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>105.3</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -4051,51 +4475,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731619688.0318015</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731619688.971375</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619688.0318015.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619688.971375.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>105.25</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>105.55</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.2999999999999972</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -4103,51 +4533,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731619692.5432572</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731619694.4251444</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731619692.5432572.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731619694.4251444.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>347.76</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>348.35</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.5900000000000318</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -4155,51 +4591,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731619711.4096053</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731619714.6753676</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731619711.4096053.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731619714.6753676.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>349.34</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>350.71</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-1.370000000000005</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -4207,95 +4649,107 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731619714.6923225</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731619714.6923225.png</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731619714.6923225.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>350.71</v>
       </c>
-      <c r="J74" t="n">
-        <v>350.71</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>351.71</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731619722.7736566</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731619723.7193873</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619722.7736566.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619723.7193873.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>2780</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>2784.55</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>4.550000000000182</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -4303,51 +4757,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731619725.5207124</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731619731.987793</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619725.5207124.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619731.987793.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>2789.05</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>2787.15</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-1.900000000000091</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -4355,51 +4815,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731619732.0097318</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731619733.1637714</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619732.0097318.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619733.1637714.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>2787.15</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>2783.1</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>4.050000000000182</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -4407,51 +4873,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731619736.4305553</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731619738.534062</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619736.4305553.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619738.534062.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>2779.75</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>2778.5</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-1.25</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -4459,51 +4931,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731619738.552014</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731619743.5262427</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619738.552014.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619743.5262427.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>2778.5</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>2789</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-10.5</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -4511,51 +4989,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731619743.5441947</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731619744.4250808</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619743.5441947.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619744.4250808.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>2789</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>2794.9</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>5.900000000000091</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -4563,51 +5047,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731619746.090018</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731619749.174979</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619746.090018.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619749.174979.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>591.7</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>594.5</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -4615,51 +5105,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731619750.156241</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731619755.7150936</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619750.156241.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619755.7150936.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>593.6</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>596.1</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>2.5</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -4667,51 +5163,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731619755.7320478</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731619757.2657096</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619755.7320478.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619757.2657096.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>596.1</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>595.3</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.8000000000000682</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -4719,51 +5221,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731619757.283633</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731619759.6825762</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619757.283633.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619759.6825762.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>595.3</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>591</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-4.299999999999955</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>-0.72</v>
       </c>
     </row>
@@ -4771,51 +5279,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731619759.700525</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731619760.0776546</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619759.700525.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619760.0776546.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>591</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>590.3</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.7000000000000455</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -4823,51 +5337,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731619761.4188545</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731619763.2886572</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619761.4188545.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619763.2886572.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>589.6</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>590.1</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -4875,51 +5395,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731619763.306602</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731619765.3856099</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619763.306602.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619765.3856099.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>590.1</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>589.8</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.3000000000000682</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -4927,51 +5453,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731619765.4035625</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731619770.2807956</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619765.4035625.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619770.2807956.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>589.8</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>592.4</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-2.600000000000023</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>-0.44</v>
       </c>
     </row>
@@ -4979,51 +5511,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731619770.2987483</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731619771.3702464</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619770.2987483.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619771.3702464.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>592.4</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>594.1</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>1.700000000000045</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -5085,19 +5623,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.08999999999999808</v>
+        <v>-0.2249999999999979</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.008999999999999809</v>
+        <v>-0.02249999999999979</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.6299999999999999</v>
+        <v>-1.58</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.06</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="3">
@@ -5129,16 +5667,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2899999999999991</v>
+        <v>0.3149999999999977</v>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03222222222222212</v>
+        <v>0.03499999999999975</v>
       </c>
       <c r="E4" t="n">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="F4" t="n">
         <v>0.09</v>
@@ -5261,19 +5799,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.5099999999999625</v>
+        <v>-0.1699999999999875</v>
       </c>
       <c r="C10" t="n">
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1019999999999925</v>
+        <v>-0.0339999999999975</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.37</v>
+        <v>-0.12</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="11">
@@ -5327,19 +5865,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.7799999999999727</v>
+        <v>0.2200000000000273</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2599999999999909</v>
+        <v>0.07333333333334242</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.22</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14">
